--- a/file/map2/Data.xlsx
+++ b/file/map2/Data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gzy\Documents\GitHub\order\excel_map2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gzy\Documents\GitHub\order\file\map2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="13995" windowHeight="5355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="13995" windowHeight="5355" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tra" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>J</t>
+    <t>PJ</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -641,11 +641,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="8.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
@@ -3871,9 +3874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>

--- a/file/map2/Data.xlsx
+++ b/file/map2/Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="13995" windowHeight="5355" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="13995" windowHeight="5355"/>
   </bookViews>
   <sheets>
     <sheet name="Tra" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="10">
     <numFmt numFmtId="176" formatCode="_-#,##0_-;\(#,##0\);_-\ \ &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-#,##0.00_-;\(#,##0.00\);_-\ \ &quot;-&quot;_-;_-@_-"/>
@@ -254,56 +254,55 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="39">
-    <cellStyle name="?鹎%U龡&amp;H?_x0008__x001c__x001c_?_x0007__x0001__x0001_ 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="@_text" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="{Comma [0]}" xfId="8" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="{Comma}" xfId="9" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="{Date}" xfId="10" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="{Month}" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="{Percent}" xfId="12" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="{Thousand [0]}" xfId="13" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="{Thousand}" xfId="14" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="{Z'0000(1 dec)}" xfId="15" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="{Z'0000(4 dec)}" xfId="16" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Euro" xfId="17" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="百分比 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="百分比 2 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="差_2002年调整表" xfId="20" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="差_2007年调整表" xfId="21" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="差_Sheet3" xfId="22" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="差_Sheet3 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="?鹎%U龡&amp;H?_x0008__x001c__x001c_?_x0007__x0001__x0001_ 2" xfId="4"/>
+    <cellStyle name="@_text" xfId="7"/>
+    <cellStyle name="{Comma [0]}" xfId="8"/>
+    <cellStyle name="{Comma}" xfId="9"/>
+    <cellStyle name="{Date}" xfId="10"/>
+    <cellStyle name="{Month}" xfId="11"/>
+    <cellStyle name="{Percent}" xfId="12"/>
+    <cellStyle name="{Thousand [0]}" xfId="13"/>
+    <cellStyle name="{Thousand}" xfId="14"/>
+    <cellStyle name="{Z'0000(1 dec)}" xfId="15"/>
+    <cellStyle name="{Z'0000(4 dec)}" xfId="16"/>
+    <cellStyle name="Euro" xfId="17"/>
+    <cellStyle name="百分比 2" xfId="18"/>
+    <cellStyle name="百分比 2 2" xfId="19"/>
+    <cellStyle name="差_2002年调整表" xfId="20"/>
+    <cellStyle name="差_2007年调整表" xfId="21"/>
+    <cellStyle name="差_Sheet3" xfId="22"/>
+    <cellStyle name="差_Sheet3 2" xfId="23"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="常规 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="常规 2 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="常规 2 3" xfId="34" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="常规 2_2002年调整表" xfId="25" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="常规 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="常规 3 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="常规 3 3" xfId="35" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="常规 4" xfId="5" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="常规 4 2" xfId="36" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="常规 5" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="常规 6" xfId="32" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="常规 7" xfId="2" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="常规 8" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="常规 9" xfId="37" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="超链接 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="好_2002年调整表" xfId="26" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="好_2007年调整表" xfId="27" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="好_Sheet3" xfId="28" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="好_Sheet3 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="常规 10" xfId="1"/>
+    <cellStyle name="常规 2" xfId="3"/>
+    <cellStyle name="常规 2 2" xfId="24"/>
+    <cellStyle name="常规 2 3" xfId="34"/>
+    <cellStyle name="常规 2_2002年调整表" xfId="25"/>
+    <cellStyle name="常规 3" xfId="6"/>
+    <cellStyle name="常规 3 2" xfId="31"/>
+    <cellStyle name="常规 3 3" xfId="35"/>
+    <cellStyle name="常规 4" xfId="5"/>
+    <cellStyle name="常规 4 2" xfId="36"/>
+    <cellStyle name="常规 5" xfId="30"/>
+    <cellStyle name="常规 6" xfId="32"/>
+    <cellStyle name="常规 7" xfId="2"/>
+    <cellStyle name="常规 8" xfId="33"/>
+    <cellStyle name="常规 9" xfId="37"/>
+    <cellStyle name="超链接 2" xfId="38"/>
+    <cellStyle name="好_2002年调整表" xfId="26"/>
+    <cellStyle name="好_2007年调整表" xfId="27"/>
+    <cellStyle name="好_Sheet3" xfId="28"/>
+    <cellStyle name="好_Sheet3 2" xfId="29"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -638,11 +637,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -851,71 +850,72 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="1">
-        <v>1.3259535525116463E+19</v>
-      </c>
-      <c r="B26" s="1">
-        <v>3.5602981295706076E+18</v>
+      <c r="A26" s="2">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>1.521773843546017E+18</v>
+        <v>1.3259535525116463E+19</v>
       </c>
       <c r="B27" s="1">
-        <v>1.8167523275431603E+18</v>
+        <v>3.5602981295706076E+18</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>3.1730051094444096E+17</v>
+        <v>1.521773843546017E+18</v>
       </c>
       <c r="B28" s="1">
-        <v>2.7858456294804576E+17</v>
+        <v>1.8167523275431603E+18</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>3.3469211526397926E+18</v>
+        <v>3.1730051094444096E+17</v>
       </c>
       <c r="B29" s="1">
-        <v>2.4027284645177482E+18</v>
+        <v>2.7858456294804576E+17</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
+        <v>3.3469211526397926E+18</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2.4027284645177482E+18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
         <v>3.4743758594534313E+18</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B31" s="1">
         <v>1.2001599429694198E+18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="4">
-        <v>0</v>
-      </c>
-      <c r="B31" s="4">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="20" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.15">
@@ -994,23 +994,23 @@
       <c r="Y1" s="3">
         <v>3.7620955340705904E+16</v>
       </c>
-      <c r="Z1" s="3">
+      <c r="Z1" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="3">
         <v>1.6302598223934202E+17</v>
       </c>
-      <c r="AA1" s="3">
+      <c r="AB1" s="3">
         <v>3.8624193005795E+16</v>
       </c>
-      <c r="AB1" s="3">
+      <c r="AC1" s="3">
         <v>1.00312434641487E+16</v>
       </c>
-      <c r="AC1" s="3">
+      <c r="AD1" s="3">
         <v>7.08420876298868E+16</v>
       </c>
-      <c r="AD1" s="3">
+      <c r="AE1" s="3">
         <v>4.3325967304970304E+16</v>
-      </c>
-      <c r="AE1" s="5">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.15">
@@ -1089,23 +1089,23 @@
       <c r="Y2" s="3">
         <v>1.49073246584311E+16</v>
       </c>
-      <c r="Z2" s="3">
+      <c r="Z2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="3">
         <v>4.13189981528278E+16</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AB2" s="3">
         <v>1.44525270324794E+16</v>
       </c>
-      <c r="AB2" s="3">
+      <c r="AC2" s="3">
         <v>5061722298833570</v>
       </c>
-      <c r="AC2" s="3">
+      <c r="AD2" s="3">
         <v>1.59173974604513E+16</v>
       </c>
-      <c r="AD2" s="3">
+      <c r="AE2" s="3">
         <v>1.50944204819585E+16</v>
-      </c>
-      <c r="AE2" s="5">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.15">
@@ -1184,23 +1184,23 @@
       <c r="Y3" s="3">
         <v>6.6254462761413904E+16</v>
       </c>
-      <c r="Z3" s="3">
+      <c r="Z3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="3">
         <v>1.92464174648424E+17</v>
       </c>
-      <c r="AA3" s="3">
+      <c r="AB3" s="3">
         <v>6.43574042090466E+16</v>
       </c>
-      <c r="AB3" s="3">
+      <c r="AC3" s="3">
         <v>1.17867558413813E+16</v>
       </c>
-      <c r="AC3" s="3">
+      <c r="AD3" s="3">
         <v>2.94925679423067E+16</v>
       </c>
-      <c r="AD3" s="3">
+      <c r="AE3" s="3">
         <v>7.8764396748307904E+16</v>
-      </c>
-      <c r="AE3" s="5">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.15">
@@ -1279,23 +1279,23 @@
       <c r="Y4" s="3">
         <v>2.60767532322092E+16</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="Z4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="3">
         <v>3.4191708549397402E+17</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AB4" s="3">
         <v>1.3777397428487699E+17</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AC4" s="3">
         <v>8030622615982900</v>
       </c>
-      <c r="AC4" s="3">
+      <c r="AD4" s="3">
         <v>4.7447650331207802E+17</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AE4" s="3">
         <v>7347099868827050</v>
-      </c>
-      <c r="AE4" s="5">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
@@ -1374,23 +1374,23 @@
       <c r="Y5" s="3">
         <v>5.5025804596466304E+16</v>
       </c>
-      <c r="Z5" s="3">
+      <c r="Z5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="3">
         <v>4.17002488076208E+17</v>
       </c>
-      <c r="AA5" s="3">
+      <c r="AB5" s="3">
         <v>3.1065153470917101E+17</v>
       </c>
-      <c r="AB5" s="3">
+      <c r="AC5" s="3">
         <v>1.8844139297268E+16</v>
       </c>
-      <c r="AC5" s="3">
+      <c r="AD5" s="3">
         <v>9.4814889469760896E+17</v>
       </c>
-      <c r="AD5" s="3">
+      <c r="AE5" s="3">
         <v>7.93368708140672E+16</v>
-      </c>
-      <c r="AE5" s="5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
@@ -1469,23 +1469,23 @@
       <c r="Y6" s="3">
         <v>7.3257402210761696E+16</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="Z6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="3">
         <v>8.4076040957057408E+16</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AB6" s="3">
         <v>3.6951515204285E+16</v>
       </c>
-      <c r="AB6" s="3">
+      <c r="AC6" s="3">
         <v>8872427176696280</v>
       </c>
-      <c r="AC6" s="3">
+      <c r="AD6" s="3">
         <v>1.46989084334183E+16</v>
       </c>
-      <c r="AD6" s="3">
+      <c r="AE6" s="3">
         <v>5.90159466238148E+16</v>
-      </c>
-      <c r="AE6" s="5">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
@@ -1564,23 +1564,23 @@
       <c r="Y7" s="3">
         <v>3.47019498783525E+16</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="Z7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3">
         <v>4.18397628622554E+16</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AB7" s="3">
         <v>2.13862834182725E+16</v>
       </c>
-      <c r="AB7" s="3">
+      <c r="AC7" s="3">
         <v>5421939589177020</v>
       </c>
-      <c r="AC7" s="3">
+      <c r="AD7" s="3">
         <v>9512435268018600</v>
       </c>
-      <c r="AD7" s="3">
+      <c r="AE7" s="3">
         <v>2.96225935059141E+16</v>
-      </c>
-      <c r="AE7" s="5">
-        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
@@ -1659,23 +1659,23 @@
       <c r="Y8" s="3">
         <v>3.2464434573616E+16</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="Z8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
         <v>4.5999407255372496E+16</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2.91039072257283E+16</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>4775826675747510</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>3.6335578977730496E+16</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>3.25286206466993E+16</v>
-      </c>
-      <c r="AE8" s="5">
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
@@ -1754,23 +1754,23 @@
       <c r="Y9" s="3">
         <v>9.3916548651676096E+16</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="Z9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
         <v>1.3461791244643699E+17</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>4.1878193065995904E+16</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1.7138895766095E+16</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>8917396453765680</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>7.6808949421586896E+16</v>
-      </c>
-      <c r="AE9" s="5">
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.15">
@@ -1849,23 +1849,23 @@
       <c r="Y10" s="3">
         <v>2.54954649462012E+17</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="Z10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
         <v>3.18968497108504E+17</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1.01829458138628E+17</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2.99857661105159E+16</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>2.10650627150482E+16</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1.85813709868744E+17</v>
-      </c>
-      <c r="AE10" s="5">
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.15">
@@ -1944,23 +1944,23 @@
       <c r="Y11" s="3">
         <v>9.9106552313950496E+16</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="Z11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="3">
         <v>1.2677795540477699E+17</v>
       </c>
-      <c r="AA11" s="3">
+      <c r="AB11" s="3">
         <v>4.21384276163572E+16</v>
       </c>
-      <c r="AB11" s="3">
+      <c r="AC11" s="3">
         <v>7255120798839800</v>
       </c>
-      <c r="AC11" s="3">
+      <c r="AD11" s="3">
         <v>9309646439365700</v>
       </c>
-      <c r="AD11" s="3">
+      <c r="AE11" s="3">
         <v>7.7374321442928992E+16</v>
-      </c>
-      <c r="AE11" s="5">
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.15">
@@ -2039,23 +2039,23 @@
       <c r="Y12" s="3">
         <v>7.8844435704085696E+16</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="Z12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
         <v>1.45420820709944E+17</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>3.46641801793519E+16</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>8794565553696590</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>1.13637517046803E+16</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>5.5619440843104704E+16</v>
-      </c>
-      <c r="AE12" s="5">
-        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.15">
@@ -2134,23 +2134,23 @@
       <c r="Y13" s="3">
         <v>2.74952256734609E+16</v>
       </c>
-      <c r="Z13" s="3">
+      <c r="Z13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
         <v>2.47071431059898E+16</v>
       </c>
-      <c r="AA13" s="3">
+      <c r="AB13" s="3">
         <v>9981221711750760</v>
       </c>
-      <c r="AB13" s="3">
+      <c r="AC13" s="3">
         <v>1379922856810210</v>
       </c>
-      <c r="AC13" s="3">
+      <c r="AD13" s="3">
         <v>1898117462434500</v>
       </c>
-      <c r="AD13" s="3">
+      <c r="AE13" s="3">
         <v>1.40008882326423E+16</v>
-      </c>
-      <c r="AE13" s="5">
-        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.15">
@@ -2229,23 +2229,23 @@
       <c r="Y14" s="3">
         <v>2.11047280777031E+16</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>3.27932516611382E+16</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>1.04094725554103E+16</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>1559773649802870</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>3043616346413540</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>1.28207556716912E+16</v>
-      </c>
-      <c r="AE14" s="5">
-        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.15">
@@ -2324,23 +2324,23 @@
       <c r="Y15" s="3">
         <v>5.0358242736006496E+16</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="Z15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
         <v>7.5947011765605504E+16</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>3.29858080033277E+16</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>6984993823717190</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>1.08630255295176E+16</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>3.98393165568766E+16</v>
-      </c>
-      <c r="AE15" s="5">
-        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.15">
@@ -2419,23 +2419,23 @@
       <c r="Y16" s="3">
         <v>7.61265792520016E+16</v>
       </c>
-      <c r="Z16" s="3">
+      <c r="Z16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="3">
         <v>3.1035219380357101E+17</v>
       </c>
-      <c r="AA16" s="3">
+      <c r="AB16" s="3">
         <v>6.5707227418454496E+16</v>
       </c>
-      <c r="AB16" s="3">
+      <c r="AC16" s="3">
         <v>9234656089044150</v>
       </c>
-      <c r="AC16" s="3">
+      <c r="AD16" s="3">
         <v>3.46786141516161E+16</v>
       </c>
-      <c r="AD16" s="3">
+      <c r="AE16" s="3">
         <v>6.3705481310832096E+16</v>
-      </c>
-      <c r="AE16" s="5">
-        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.15">
@@ -2514,23 +2514,23 @@
       <c r="Y17" s="3">
         <v>8572758129192380</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="Z17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
         <v>2.16181131659838E+16</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4011180546754270</v>
       </c>
-      <c r="AB17" s="2">
+      <c r="AC17" s="2">
         <v>680751382246265</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1651974827282920</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>7150509477317010</v>
-      </c>
-      <c r="AE17" s="5">
-        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.15">
@@ -2609,23 +2609,23 @@
       <c r="Y18" s="3">
         <v>6.1283272739993696E+16</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="Z18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
         <v>1.0505828391284099E+17</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2.52808840399743E+16</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>4268369410369580</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>8627879905863080</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>3.7937120364901504E+16</v>
-      </c>
-      <c r="AE18" s="5">
-        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.15">
@@ -2704,23 +2704,23 @@
       <c r="Y19" s="3">
         <v>1.99165928536056E+17</v>
       </c>
-      <c r="Z19" s="3">
+      <c r="Z19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="3">
         <v>1.45088028201088E+17</v>
       </c>
-      <c r="AA19" s="3">
+      <c r="AB19" s="3">
         <v>5.1171359656209296E+16</v>
       </c>
-      <c r="AB19" s="3">
+      <c r="AC19" s="3">
         <v>1.11204106179464E+16</v>
       </c>
-      <c r="AC19" s="3">
+      <c r="AD19" s="3">
         <v>1.08307161095409E+16</v>
       </c>
-      <c r="AD19" s="3">
+      <c r="AE19" s="3">
         <v>6.4178091632648E+16</v>
-      </c>
-      <c r="AE19" s="5">
-        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.15">
@@ -2799,23 +2799,23 @@
       <c r="Y20" s="3">
         <v>4.6574226156674E+16</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="Z20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>2.48126187180438E+16</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>7727681940957140</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>1289760245303110</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>2475432901636320</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>1.216945755417E+16</v>
-      </c>
-      <c r="AE20" s="5">
-        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.15">
@@ -2894,23 +2894,23 @@
       <c r="Y21" s="3">
         <v>2.75036299102266E+16</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
         <v>1.01306537535867E+16</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>4395474775701400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1713691017341320</v>
       </c>
-      <c r="AC21" s="2">
+      <c r="AD21" s="2">
         <v>693899509366026</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>5998492594476420</v>
-      </c>
-      <c r="AE21" s="5">
-        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.15">
@@ -2989,23 +2989,23 @@
       <c r="Y22" s="3">
         <v>1.3808707197494301E+17</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="Z22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
         <v>1.4771714005289402E+17</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>3.89655452442526E+16</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>1.03989400238216E+16</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>1.03394973780324E+16</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>3.90905388173798E+16</v>
-      </c>
-      <c r="AE22" s="5">
-        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.15">
@@ -3084,23 +3084,23 @@
       <c r="Y23" s="3">
         <v>4.7773585772082704E+16</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="Z23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
         <v>6.0227441278302E+16</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>3.3979093588693E+16</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>4607381333584770</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>1.22057386765436E+16</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>2.18938917949565E+16</v>
-      </c>
-      <c r="AE23" s="5">
-        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.15">
@@ -3179,23 +3179,23 @@
       <c r="Y24" s="3">
         <v>7.8118755749967392E+16</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="Z24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>7.4967175591326704E+16</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>2.54318999154943E+16</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>2683072005623220</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>1.97306022967289E+16</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>1.5575001855906E+16</v>
-      </c>
-      <c r="AE24" s="5">
-        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.15">
@@ -3274,593 +3274,593 @@
       <c r="Y25" s="3">
         <v>7.0716047700770601E+18</v>
       </c>
-      <c r="Z25" s="3">
+      <c r="Z25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
         <v>6.18244223087532E+16</v>
       </c>
-      <c r="AA25" s="3">
+      <c r="AB25" s="3">
         <v>2.18781846384955E+16</v>
       </c>
-      <c r="AB25" s="3">
+      <c r="AC25" s="3">
         <v>2956793137089970</v>
       </c>
-      <c r="AC25" s="3">
+      <c r="AD25" s="3">
         <v>1.05297727420842E+16</v>
       </c>
-      <c r="AD25" s="3">
+      <c r="AE25" s="3">
         <v>2.15158344542497E+16</v>
-      </c>
-      <c r="AE25" s="5">
-        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
-        <v>3.0242956129258502E+17</v>
+        <v>0</v>
       </c>
       <c r="B26" s="3">
-        <v>5.5206841684712304E+16</v>
+        <v>0</v>
       </c>
       <c r="C26" s="3">
-        <v>7.1957930074213798E+17</v>
+        <v>0</v>
       </c>
       <c r="D26" s="3">
-        <v>1.0677013220092301E+17</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>2.1168636625496198E+17</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>3.9191282017545402E+17</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>1.3476540380631901E+17</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>1.0915194159072899E+17</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>8.4368149640986304E+17</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>2.14889128217889E+18</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>1.14333896656322E+18</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>5.7917115209297395E+17</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>1.35274281529498E+17</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
-        <v>3.0679166271233299E+17</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>1.1894023601666401E+18</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
-        <v>7.9055682426540096E+17</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
-        <v>5.1432383736515302E+17</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
-        <v>5.5832942050394598E+17</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
-        <v>1.24561010121566E+18</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
-        <v>2.0105173005493901E+17</v>
+        <v>0</v>
       </c>
       <c r="U26" s="3">
-        <v>2.55659476876883E+16</v>
+        <v>0</v>
       </c>
       <c r="V26" s="3">
-        <v>2.68526372628872E+17</v>
+        <v>0</v>
       </c>
       <c r="W26" s="3">
-        <v>2.4455760741136499E+17</v>
+        <v>0</v>
       </c>
       <c r="X26" s="3">
-        <v>8.0903868635683696E+16</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="3">
-        <v>1.09171136617532E+17</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="3">
-        <v>1.33945903671564E+19</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="3">
-        <v>2.8174783604162099E+17</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="3">
-        <v>2.28037462987091E+16</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="3">
-        <v>4.9495806413739398E+17</v>
+        <v>0</v>
       </c>
       <c r="AD26" s="3">
-        <v>4.33754628512602E+16</v>
-      </c>
-      <c r="AE26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
-        <v>7.4339048405066896E+16</v>
+        <v>3.0242956129258502E+17</v>
       </c>
       <c r="B27" s="3">
-        <v>2.44348936704301E+16</v>
+        <v>5.5206841684712304E+16</v>
       </c>
       <c r="C27" s="3">
-        <v>8.2488550629058896E+16</v>
+        <v>7.1957930074213798E+17</v>
       </c>
       <c r="D27" s="3">
-        <v>2.40461535125814E+16</v>
+        <v>1.0677013220092301E+17</v>
       </c>
       <c r="E27" s="3">
-        <v>4.63229522723148E+16</v>
+        <v>2.1168636625496198E+17</v>
       </c>
       <c r="F27" s="3">
-        <v>4.62427182016738E+16</v>
+        <v>3.9191282017545402E+17</v>
       </c>
       <c r="G27" s="3">
-        <v>2.22239724386881E+16</v>
+        <v>1.3476540380631901E+17</v>
       </c>
       <c r="H27" s="3">
-        <v>2.67945426480416E+16</v>
+        <v>1.0915194159072899E+17</v>
       </c>
       <c r="I27" s="3">
-        <v>5.0519140848079296E+16</v>
+        <v>8.4368149640986304E+17</v>
       </c>
       <c r="J27" s="3">
-        <v>1.3655003291589501E+17</v>
+        <v>2.14889128217889E+18</v>
       </c>
       <c r="K27" s="3">
-        <v>8.9133176010108704E+16</v>
+        <v>1.14333896656322E+18</v>
       </c>
       <c r="L27" s="3">
-        <v>5.41142912005542E+16</v>
+        <v>5.7917115209297395E+17</v>
       </c>
       <c r="M27" s="3">
-        <v>1.5382265412006E+16</v>
+        <v>1.35274281529498E+17</v>
       </c>
       <c r="N27" s="3">
-        <v>1.98801218313254E+16</v>
+        <v>3.0679166271233299E+17</v>
       </c>
       <c r="O27" s="3">
-        <v>4.88499262379828E+16</v>
+        <v>1.1894023601666401E+18</v>
       </c>
       <c r="P27" s="3">
-        <v>6.66654455849052E+16</v>
+        <v>7.9055682426540096E+17</v>
       </c>
       <c r="Q27" s="3">
-        <v>2.05912477636646E+16</v>
+        <v>5.1432383736515302E+17</v>
       </c>
       <c r="R27" s="3">
-        <v>4.65375963210448E+16</v>
+        <v>5.5832942050394598E+17</v>
       </c>
       <c r="S27" s="3">
-        <v>1.13647179326156E+17</v>
+        <v>1.24561010121566E+18</v>
       </c>
       <c r="T27" s="3">
-        <v>1.88904324191373E+16</v>
+        <v>2.0105173005493901E+17</v>
       </c>
       <c r="U27" s="3">
-        <v>7997972664071380</v>
+        <v>2.55659476876883E+16</v>
       </c>
       <c r="V27" s="3">
-        <v>1.1379227648735901E+17</v>
+        <v>2.68526372628872E+17</v>
       </c>
       <c r="W27" s="3">
-        <v>6.9096743322481696E+16</v>
+        <v>2.4455760741136499E+17</v>
       </c>
       <c r="X27" s="3">
-        <v>2.06999979696474E+16</v>
+        <v>8.0903868635683696E+16</v>
       </c>
       <c r="Y27" s="3">
-        <v>3.86917150765144E+16</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>1.4262853699408099E+17</v>
+        <v>1.09171136617532E+17</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>0</v>
       </c>
       <c r="AA27" s="3">
-        <v>6.2601775604107305E+18</v>
+        <v>1.33945903671564E+19</v>
       </c>
       <c r="AB27" s="3">
-        <v>3.7040000472115504E+16</v>
+        <v>2.8174783604162099E+17</v>
       </c>
       <c r="AC27" s="3">
-        <v>3.0686974030194E+16</v>
+        <v>2.28037462987091E+16</v>
       </c>
       <c r="AD27" s="3">
-        <v>3.34859388808378E+16</v>
-      </c>
-      <c r="AE27" s="5">
-        <v>0</v>
+        <v>4.9495806413739398E+17</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>4.33754628512602E+16</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
-        <v>5491904340081600</v>
+        <v>7.4339048405066896E+16</v>
       </c>
       <c r="B28" s="3">
-        <v>4005619570484640</v>
+        <v>2.44348936704301E+16</v>
       </c>
       <c r="C28" s="3">
-        <v>1.04255135221456E+16</v>
+        <v>8.2488550629058896E+16</v>
       </c>
       <c r="D28" s="3">
-        <v>3322914714926140</v>
+        <v>2.40461535125814E+16</v>
       </c>
       <c r="E28" s="3">
-        <v>3073252370974940</v>
+        <v>4.63229522723148E+16</v>
       </c>
       <c r="F28" s="3">
-        <v>1.08389085967672E+16</v>
-      </c>
-      <c r="G28" s="2">
-        <v>788944620104950</v>
+        <v>4.62427182016738E+16</v>
+      </c>
+      <c r="G28" s="3">
+        <v>2.22239724386881E+16</v>
       </c>
       <c r="H28" s="3">
-        <v>3074900035382700</v>
+        <v>2.67945426480416E+16</v>
       </c>
       <c r="I28" s="3">
-        <v>1.55807877607788E+16</v>
+        <v>5.0519140848079296E+16</v>
       </c>
       <c r="J28" s="3">
-        <v>2.09152950163786E+16</v>
+        <v>1.3655003291589501E+17</v>
       </c>
       <c r="K28" s="3">
-        <v>3.6852064658702496E+16</v>
+        <v>8.9133176010108704E+16</v>
       </c>
       <c r="L28" s="3">
-        <v>3815030689124270</v>
+        <v>5.41142912005542E+16</v>
       </c>
       <c r="M28" s="3">
-        <v>2.27997131622427E+16</v>
+        <v>1.5382265412006E+16</v>
       </c>
       <c r="N28" s="3">
-        <v>5255956481102980</v>
+        <v>1.98801218313254E+16</v>
       </c>
       <c r="O28" s="3">
-        <v>2.22599395969653E+16</v>
+        <v>4.88499262379828E+16</v>
       </c>
       <c r="P28" s="3">
-        <v>1.02208795634137E+16</v>
+        <v>6.66654455849052E+16</v>
       </c>
       <c r="Q28" s="3">
-        <v>4760681118315770</v>
+        <v>2.05912477636646E+16</v>
       </c>
       <c r="R28" s="3">
-        <v>4111113269977450</v>
+        <v>4.65375963210448E+16</v>
       </c>
       <c r="S28" s="3">
-        <v>1.29191854487018E+16</v>
+        <v>1.13647179326156E+17</v>
       </c>
       <c r="T28" s="3">
-        <v>2998760902250870</v>
+        <v>1.88904324191373E+16</v>
       </c>
       <c r="U28" s="3">
-        <v>1275038613898890</v>
+        <v>7997972664071380</v>
       </c>
       <c r="V28" s="3">
-        <v>2.35874251683889E+16</v>
+        <v>1.1379227648735901E+17</v>
       </c>
       <c r="W28" s="3">
-        <v>1.98201731806869E+16</v>
+        <v>6.9096743322481696E+16</v>
       </c>
       <c r="X28" s="3">
-        <v>1685265096261350</v>
+        <v>2.06999979696474E+16</v>
       </c>
       <c r="Y28" s="3">
-        <v>3572336972736530</v>
-      </c>
-      <c r="Z28" s="3">
-        <v>1.40251349606823E+16</v>
+        <v>3.86917150765144E+16</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>0</v>
       </c>
       <c r="AA28" s="3">
-        <v>2.90629231448673E+16</v>
+        <v>1.4262853699408099E+17</v>
       </c>
       <c r="AB28" s="3">
-        <v>2.7435147276419599E+18</v>
+        <v>6.2601775604107305E+18</v>
       </c>
       <c r="AC28" s="3">
-        <v>1.4354598450599E+16</v>
+        <v>3.7040000472115504E+16</v>
       </c>
       <c r="AD28" s="3">
-        <v>6406249917497300</v>
-      </c>
-      <c r="AE28" s="5">
-        <v>0</v>
+        <v>3.0686974030194E+16</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>3.34859388808378E+16</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
-        <v>1.7924998195676998E+17</v>
+        <v>5491904340081600</v>
       </c>
       <c r="B29" s="3">
-        <v>1.65174812993585E+16</v>
+        <v>4005619570484640</v>
       </c>
       <c r="C29" s="3">
-        <v>1.43770050823604E+17</v>
+        <v>1.04255135221456E+16</v>
       </c>
       <c r="D29" s="3">
-        <v>5.40834881793526E+16</v>
+        <v>3322914714926140</v>
       </c>
       <c r="E29" s="3">
-        <v>1.5307261032666899E+17</v>
+        <v>3073252370974940</v>
       </c>
       <c r="F29" s="3">
-        <v>8.71586526565792E+16</v>
-      </c>
-      <c r="G29" s="3">
-        <v>5.15608517624628E+16</v>
+        <v>1.08389085967672E+16</v>
+      </c>
+      <c r="G29" s="2">
+        <v>788944620104950</v>
       </c>
       <c r="H29" s="3">
-        <v>5.35818923286156E+16</v>
+        <v>3074900035382700</v>
       </c>
       <c r="I29" s="3">
-        <v>1.5452411311387901E+17</v>
+        <v>1.55807877607788E+16</v>
       </c>
       <c r="J29" s="3">
-        <v>4.3277615417547802E+17</v>
+        <v>2.09152950163786E+16</v>
       </c>
       <c r="K29" s="3">
-        <v>2.9314170482678003E+17</v>
+        <v>3.6852064658702496E+16</v>
       </c>
       <c r="L29" s="3">
-        <v>1.3621793550491901E+17</v>
+        <v>3815030689124270</v>
       </c>
       <c r="M29" s="3">
-        <v>3.11149150000746E+16</v>
+        <v>2.27997131622427E+16</v>
       </c>
       <c r="N29" s="3">
-        <v>4.29956716880526E+16</v>
+        <v>5255956481102980</v>
       </c>
       <c r="O29" s="3">
-        <v>1.52029697868448E+17</v>
+        <v>2.22599395969653E+16</v>
       </c>
       <c r="P29" s="3">
-        <v>1.50854462744032E+17</v>
+        <v>1.02208795634137E+16</v>
       </c>
       <c r="Q29" s="3">
-        <v>8.9575197801354096E+16</v>
+        <v>4760681118315770</v>
       </c>
       <c r="R29" s="3">
-        <v>1.1580254520950099E+17</v>
+        <v>4111113269977450</v>
       </c>
       <c r="S29" s="3">
-        <v>3.2648115784153901E+17</v>
+        <v>1.29191854487018E+16</v>
       </c>
       <c r="T29" s="3">
-        <v>3.9505237457190096E+16</v>
+        <v>2998760902250870</v>
       </c>
       <c r="U29" s="3">
-        <v>8522886729536200</v>
+        <v>1275038613898890</v>
       </c>
       <c r="V29" s="3">
-        <v>6.2013181364150304E+16</v>
+        <v>2.35874251683889E+16</v>
       </c>
       <c r="W29" s="3">
-        <v>6.1278899350453696E+16</v>
+        <v>1.98201731806869E+16</v>
       </c>
       <c r="X29" s="3">
-        <v>1.79056539553855E+16</v>
+        <v>1685265096261350</v>
       </c>
       <c r="Y29" s="3">
-        <v>2.98301468277604E+16</v>
-      </c>
-      <c r="Z29" s="3">
-        <v>1.9193513808407299E+17</v>
+        <v>3572336972736530</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>0</v>
       </c>
       <c r="AA29" s="3">
-        <v>2.3916180737424701E+17</v>
+        <v>1.40251349606823E+16</v>
       </c>
       <c r="AB29" s="3">
-        <v>1.18950629586751E+16</v>
+        <v>2.90629231448673E+16</v>
       </c>
       <c r="AC29" s="3">
-        <v>4.0445271542649498E+18</v>
+        <v>2.7435147276419599E+18</v>
       </c>
       <c r="AD29" s="3">
-        <v>2.03645734308533E+16</v>
-      </c>
-      <c r="AE29" s="5">
-        <v>0</v>
+        <v>1.4354598450599E+16</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>6406249917497300</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
+        <v>1.7924998195676998E+17</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1.65174812993585E+16</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1.43770050823604E+17</v>
+      </c>
+      <c r="D30" s="3">
+        <v>5.40834881793526E+16</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1.5307261032666899E+17</v>
+      </c>
+      <c r="F30" s="3">
+        <v>8.71586526565792E+16</v>
+      </c>
+      <c r="G30" s="3">
+        <v>5.15608517624628E+16</v>
+      </c>
+      <c r="H30" s="3">
+        <v>5.35818923286156E+16</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1.5452411311387901E+17</v>
+      </c>
+      <c r="J30" s="3">
+        <v>4.3277615417547802E+17</v>
+      </c>
+      <c r="K30" s="3">
+        <v>2.9314170482678003E+17</v>
+      </c>
+      <c r="L30" s="3">
+        <v>1.3621793550491901E+17</v>
+      </c>
+      <c r="M30" s="3">
+        <v>3.11149150000746E+16</v>
+      </c>
+      <c r="N30" s="3">
+        <v>4.29956716880526E+16</v>
+      </c>
+      <c r="O30" s="3">
+        <v>1.52029697868448E+17</v>
+      </c>
+      <c r="P30" s="3">
+        <v>1.50854462744032E+17</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>8.9575197801354096E+16</v>
+      </c>
+      <c r="R30" s="3">
+        <v>1.1580254520950099E+17</v>
+      </c>
+      <c r="S30" s="3">
+        <v>3.2648115784153901E+17</v>
+      </c>
+      <c r="T30" s="3">
+        <v>3.9505237457190096E+16</v>
+      </c>
+      <c r="U30" s="3">
+        <v>8522886729536200</v>
+      </c>
+      <c r="V30" s="3">
+        <v>6.2013181364150304E+16</v>
+      </c>
+      <c r="W30" s="3">
+        <v>6.1278899350453696E+16</v>
+      </c>
+      <c r="X30" s="3">
+        <v>1.79056539553855E+16</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>2.98301468277604E+16</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>1.9193513808407299E+17</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>2.3916180737424701E+17</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>1.18950629586751E+16</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>4.0445271542649498E+18</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>2.03645734308533E+16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A31" s="3">
         <v>5.56192259035536E+16</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B31" s="3">
         <v>2.89362387937835E+16</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C31" s="3">
         <v>1.8900951661333501E+17</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D31" s="3">
         <v>2.06360918901149E+16</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E31" s="3">
         <v>6.6942034989590304E+16</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F31" s="3">
         <v>2.6229584576839299E+17</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G31" s="3">
         <v>3.55564024761027E+16</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H31" s="3">
         <v>6.5462326063737904E+16</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I31" s="3">
         <v>3.0905326548534502E+17</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J31" s="3">
         <v>4.6617716322777203E+17</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K31" s="3">
         <v>3.12553590237632E+17</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L31" s="3">
         <v>9.0174752941330896E+16</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M31" s="3">
         <v>5.83015138042614E+16</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N31" s="3">
         <v>6.6656883573836E+16</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O31" s="3">
         <v>4.8306614580749798E+17</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P31" s="3">
         <v>8.1802399126368192E+16</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="Q31" s="3">
         <v>4.55205405484492E+16</v>
       </c>
-      <c r="R30" s="3">
+      <c r="R31" s="3">
         <v>6.3147001519986096E+16</v>
       </c>
-      <c r="S30" s="3">
+      <c r="S31" s="3">
         <v>2.2782832317685299E+17</v>
       </c>
-      <c r="T30" s="3">
+      <c r="T31" s="3">
         <v>7.2639709477371696E+16</v>
       </c>
-      <c r="U30" s="3">
+      <c r="U31" s="3">
         <v>1.04062171405566E+16</v>
       </c>
-      <c r="V30" s="3">
+      <c r="V31" s="3">
         <v>7.9694523188426208E+16</v>
       </c>
-      <c r="W30" s="3">
+      <c r="W31" s="3">
         <v>7.94156232125128E+16</v>
       </c>
-      <c r="X30" s="3">
+      <c r="X31" s="3">
         <v>2.93573360416553E+16</v>
       </c>
-      <c r="Y30" s="3">
+      <c r="Y31" s="3">
         <v>5.29954212648738E+16</v>
       </c>
-      <c r="Z30" s="3">
+      <c r="Z31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
         <v>6.30367168575238E+16</v>
       </c>
-      <c r="AA30" s="3">
+      <c r="AB31" s="3">
         <v>6.1043128856962E+16</v>
       </c>
-      <c r="AB30" s="3">
+      <c r="AC31" s="3">
         <v>1.19682124374628E+16</v>
       </c>
-      <c r="AC30" s="3">
+      <c r="AD31" s="3">
         <v>8.5079709028142592E+16</v>
       </c>
-      <c r="AD30" s="3">
+      <c r="AE31" s="3">
         <v>1.1687520019034401E+19</v>
-      </c>
-      <c r="AE30" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A31" s="5">
-        <v>0</v>
-      </c>
-      <c r="B31" s="5">
-        <v>0</v>
-      </c>
-      <c r="C31" s="5">
-        <v>0</v>
-      </c>
-      <c r="D31" s="5">
-        <v>0</v>
-      </c>
-      <c r="E31" s="5">
-        <v>0</v>
-      </c>
-      <c r="F31" s="5">
-        <v>0</v>
-      </c>
-      <c r="G31" s="5">
-        <v>0</v>
-      </c>
-      <c r="H31" s="5">
-        <v>0</v>
-      </c>
-      <c r="I31" s="5">
-        <v>0</v>
-      </c>
-      <c r="J31" s="5">
-        <v>0</v>
-      </c>
-      <c r="K31" s="5">
-        <v>0</v>
-      </c>
-      <c r="L31" s="5">
-        <v>0</v>
-      </c>
-      <c r="M31" s="5">
-        <v>0</v>
-      </c>
-      <c r="N31" s="5">
-        <v>0</v>
-      </c>
-      <c r="O31" s="5">
-        <v>0</v>
-      </c>
-      <c r="P31" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="5">
-        <v>0</v>
-      </c>
-      <c r="R31" s="5">
-        <v>0</v>
-      </c>
-      <c r="S31" s="5">
-        <v>0</v>
-      </c>
-      <c r="T31" s="5">
-        <v>0</v>
-      </c>
-      <c r="U31" s="5">
-        <v>0</v>
-      </c>
-      <c r="V31" s="5">
-        <v>0</v>
-      </c>
-      <c r="W31" s="5">
-        <v>0</v>
-      </c>
-      <c r="X31" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="5">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3871,10 +3871,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
